--- a/degrees.xlsx
+++ b/degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9e094f0b9fd54ec/CodeBase/C^M^M/L2/S2/ASD2/MathsPourInfo2/MathsPourInfo2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_35F151E004C820D0BC570625C990EEA4E437A2BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72088E65-737C-4A07-82C9-5ED4910BAF15}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_35F151E004C820D0BC570625C990EEA4E437A2BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C5E915-90AA-45FF-AD8C-C7A14899727E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Question 2.10</t>
   </si>
   <si>
     <t>Question 2.11.b (file 80)</t>
+  </si>
+  <si>
+    <t>Question 2.11.b (file 20)</t>
   </si>
 </sst>
 </file>
@@ -87,6 +90,1951 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Question 2.10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1916964720826024E-2"/>
+          <c:y val="0.1676052810999428"/>
+          <c:w val="0.89456843575664702"/>
+          <c:h val="0.73034585245748818"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.45938000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.454627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45028000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44912299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44575300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44216100000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44196000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44134499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43693599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43230499999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43179499999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42655300000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42494300000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41642499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41523100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DA4-4E97-B610-F49B9C98C251}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="719692111"/>
+        <c:axId val="719694511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="719692111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719694511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="719694511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719692111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Question 2.11.b (file 80)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.45116499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44399499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.441436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.434726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43128699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42686099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42625099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42381200000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41679899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.411692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41088799999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.400121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38995200000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38050699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E30-4761-A8CE-C8628DCB36A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="719709871"/>
+        <c:axId val="719693551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="719709871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719693551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="719693551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719709871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>595</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>191141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371521</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115948</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846A9B60-E390-9E7B-D3C3-D9285747624F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08357FF0-6C25-283D-2944-763FBAA5A6F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -290,15 +2238,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -307,14 +2255,20 @@
         <v>1</v>
       </c>
       <c r="F1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -328,7 +2282,7 @@
         <v>0.45116499999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -342,7 +2296,7 @@
         <v>0.44399499999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -356,7 +2310,7 @@
         <v>0.441436</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -370,7 +2324,7 @@
         <v>0.434726</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -384,7 +2338,7 @@
         <v>0.43128699999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -398,7 +2352,7 @@
         <v>0.42686099999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -412,7 +2366,7 @@
         <v>0.42625099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -426,7 +2380,7 @@
         <v>0.42381200000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -440,7 +2394,7 @@
         <v>0.41679899999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -454,7 +2408,7 @@
         <v>0.411692</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -468,7 +2422,7 @@
         <v>0.41088799999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -482,7 +2436,7 @@
         <v>0.400121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -496,7 +2450,7 @@
         <v>0.38995200000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -510,7 +2464,7 @@
         <v>0.38088</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -525,10 +2479,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E1:F2"/>
+    <mergeCell ref="I1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/degrees.xlsx
+++ b/degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9e094f0b9fd54ec/CodeBase/C^M^M/L2/S2/ASD2/MathsPourInfo2/MathsPourInfo2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_35F151E004C820D0BC570625C990EEA4E437A2BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C5E915-90AA-45FF-AD8C-C7A14899727E}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_35F151E004C820D0BC570625C990EEA4E437A2BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E3176F-BEA3-4E46-AB9E-23B2C6CB6156}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,6 +844,890 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.51461000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51915500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50812999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53373999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.534219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53408199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54676599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56129200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55687500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56302600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58002399999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62442600000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63701200000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64644299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB86-40D1-9228-F0E730D1E5DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1594166496"/>
+        <c:axId val="1594148736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1594166496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594148736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1594148736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594166496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Diagramme montrant l'erreur entre le test et l'entrainement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>entrainement</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.45116499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44399499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.441436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.434726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43128699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42686099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42625099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42381200000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41679899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.411692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41088799999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.400121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38995200000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38050699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B85F-4912-B0B2-0AC8337F4519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.51461000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51915500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50812999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53373999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.534219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53408199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54676599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56129200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55687500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56302600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58002399999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62442600000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63701200000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64644299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B85F-4912-B0B2-0AC8337F4519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1594151616"/>
+        <c:axId val="1594150656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1594151616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594150656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1594150656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594151616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -924,6 +1808,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1956,20 +2920,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>595</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>191141</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>713920</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371521</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>115948</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>245455</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>158671</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1996,16 +3992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>748903</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>113109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
+      <xdr:colOff>290512</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>55959</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2030,10 +4026,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>790014</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>319367</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD67AF81-54C4-61B8-2673-D192B817DB76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400321</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>112599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>770114</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>36554</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F7B67F-1099-EE7C-9FC1-817E793B0DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2240,8 +4312,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2281,6 +4353,15 @@
       <c r="F3">
         <v>0.45116499999999998</v>
       </c>
+      <c r="G3">
+        <v>0.51461000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.51461000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2295,6 +4376,15 @@
       <c r="F4">
         <v>0.44399499999999997</v>
       </c>
+      <c r="G4">
+        <v>0.51915500000000003</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.51915500000000003</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -2309,6 +4399,15 @@
       <c r="F5">
         <v>0.441436</v>
       </c>
+      <c r="G5">
+        <v>0.50812999999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0.50812999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -2323,6 +4422,15 @@
       <c r="F6">
         <v>0.434726</v>
       </c>
+      <c r="G6">
+        <v>0.53373999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0.53373999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -2337,6 +4445,15 @@
       <c r="F7">
         <v>0.43128699999999998</v>
       </c>
+      <c r="G7">
+        <v>0.534219</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0.534219</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2351,6 +4468,15 @@
       <c r="F8">
         <v>0.42686099999999999</v>
       </c>
+      <c r="G8">
+        <v>0.53408199999999995</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0.53408199999999995</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -2365,6 +4491,15 @@
       <c r="F9">
         <v>0.42625099999999999</v>
       </c>
+      <c r="G9">
+        <v>0.53666700000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>0.53666700000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2379,6 +4514,15 @@
       <c r="F10">
         <v>0.42381200000000002</v>
       </c>
+      <c r="G10">
+        <v>0.54676599999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>0.54676599999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -2393,6 +4537,15 @@
       <c r="F11">
         <v>0.41679899999999998</v>
       </c>
+      <c r="G11">
+        <v>0.56129200000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>0.56129200000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2407,6 +4560,15 @@
       <c r="F12">
         <v>0.411692</v>
       </c>
+      <c r="G12">
+        <v>0.55687500000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0.55687500000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2421,6 +4583,15 @@
       <c r="F13">
         <v>0.41088799999999998</v>
       </c>
+      <c r="G13">
+        <v>0.56302600000000003</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>0.56302600000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2435,6 +4606,15 @@
       <c r="F14">
         <v>0.400121</v>
       </c>
+      <c r="G14">
+        <v>0.58002399999999998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>0.58002399999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2449,6 +4629,15 @@
       <c r="F15">
         <v>0.38995200000000002</v>
       </c>
+      <c r="G15">
+        <v>0.62442600000000004</v>
+      </c>
+      <c r="I15" s="1">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>0.62442600000000004</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2463,8 +4652,17 @@
       <c r="F16">
         <v>0.38088</v>
       </c>
+      <c r="G16">
+        <v>0.63701200000000002</v>
+      </c>
+      <c r="I16" s="1">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0.63701200000000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2476,6 +4674,15 @@
       </c>
       <c r="F17">
         <v>0.38050699999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.64644299999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>0.64644299999999999</v>
       </c>
     </row>
   </sheetData>
